--- a/xlsx/country_comparison/reparations_support_share.xlsx
+++ b/xlsx/country_comparison/reparations_support_share.xlsx
@@ -408,7 +408,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.451745267822287</v>
+        <v>0.451745267822288</v>
       </c>
       <c r="C2" t="n">
         <v>0.502618407568093</v>

--- a/xlsx/country_comparison/reparations_support_share.xlsx
+++ b/xlsx/country_comparison/reparations_support_share.xlsx
@@ -408,7 +408,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.451745267822288</v>
+        <v>0.451810364536854</v>
       </c>
       <c r="C2" t="n">
         <v>0.502618407568093</v>
@@ -429,7 +429,7 @@
         <v>0.457151305629475</v>
       </c>
       <c r="I2" t="n">
-        <v>0.400355714925641</v>
+        <v>0.400676565778138</v>
       </c>
     </row>
   </sheetData>
